--- a/Code/Results/Cases/Case_5_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.862492596435999</v>
+        <v>1.488102091309003</v>
       </c>
       <c r="C2">
-        <v>0.110311674970589</v>
+        <v>0.04297843819446712</v>
       </c>
       <c r="D2">
-        <v>0.07558422029724987</v>
+        <v>0.1370954164261189</v>
       </c>
       <c r="E2">
-        <v>0.04762569892316293</v>
+        <v>0.07377937550792169</v>
       </c>
       <c r="F2">
-        <v>1.982239382577433</v>
+        <v>2.443551437920121</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.603797716324408</v>
+        <v>1.006837424343303</v>
       </c>
       <c r="L2">
-        <v>0.273693436853037</v>
+        <v>0.2332125897266764</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.083280010253901</v>
+        <v>3.257016017890948</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.636456866008018</v>
+        <v>1.437926680809312</v>
       </c>
       <c r="C3">
-        <v>0.09699068485683426</v>
+        <v>0.03891360204065109</v>
       </c>
       <c r="D3">
-        <v>0.07780384308613719</v>
+        <v>0.1375072156330379</v>
       </c>
       <c r="E3">
-        <v>0.04415794902101666</v>
+        <v>0.07328404718238524</v>
       </c>
       <c r="F3">
-        <v>1.847376731371114</v>
+        <v>2.417129626971743</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.396691495435306</v>
+        <v>0.9578911728305286</v>
       </c>
       <c r="L3">
-        <v>0.2418553924996445</v>
+        <v>0.2262685050182967</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.078600692111792</v>
+        <v>3.258522478605585</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.500173082205066</v>
+        <v>1.408023314977669</v>
       </c>
       <c r="C4">
-        <v>0.08888058103441665</v>
+        <v>0.03639846191308038</v>
       </c>
       <c r="D4">
-        <v>0.07918665350581566</v>
+        <v>0.1377667964015759</v>
       </c>
       <c r="E4">
-        <v>0.04209533194021553</v>
+        <v>0.07301236143787904</v>
       </c>
       <c r="F4">
-        <v>1.767613362612551</v>
+        <v>2.401974831123155</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.271595646311397</v>
+        <v>0.9284730697622763</v>
       </c>
       <c r="L4">
-        <v>0.2226992862199779</v>
+        <v>0.2221438623067087</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.077800382067707</v>
+        <v>3.260171859267004</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.445199429310208</v>
+        <v>1.39606465224324</v>
       </c>
       <c r="C5">
-        <v>0.08558909026226047</v>
+        <v>0.03536859521879876</v>
       </c>
       <c r="D5">
-        <v>0.07975522319787931</v>
+        <v>0.1378742713094931</v>
       </c>
       <c r="E5">
-        <v>0.04127034369186156</v>
+        <v>0.07290980921765211</v>
       </c>
       <c r="F5">
-        <v>1.735814540305498</v>
+        <v>2.396067340362109</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.221077752870002</v>
+        <v>0.9166442831923405</v>
       </c>
       <c r="L5">
-        <v>0.214981774972685</v>
+        <v>0.220497943314399</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.077968259648586</v>
+        <v>3.2610258723372</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.436103255805904</v>
+        <v>1.394092640746152</v>
       </c>
       <c r="C6">
-        <v>0.08504324365482319</v>
+        <v>0.03519728704408465</v>
       </c>
       <c r="D6">
-        <v>0.07984994106156318</v>
+        <v>0.1378922197359831</v>
       </c>
       <c r="E6">
-        <v>0.04113426034366974</v>
+        <v>0.072893273543718</v>
       </c>
       <c r="F6">
-        <v>1.730575307658739</v>
+        <v>2.395102593200065</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.21271537495457</v>
+        <v>0.9146897347117147</v>
       </c>
       <c r="L6">
-        <v>0.2137053708958234</v>
+        <v>0.2202267462747045</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.078025214385562</v>
+        <v>3.261178657333545</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.49942949258508</v>
+        <v>1.4078611166683</v>
       </c>
       <c r="C7">
-        <v>0.08883614137569396</v>
+        <v>0.03638459280985273</v>
       </c>
       <c r="D7">
-        <v>0.0791943008678011</v>
+        <v>0.1377682389890209</v>
       </c>
       <c r="E7">
-        <v>0.04208414444672215</v>
+        <v>0.07301094533160146</v>
       </c>
       <c r="F7">
-        <v>1.767181732331835</v>
+        <v>2.401894075227403</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.270912559784989</v>
+        <v>0.9283128979758146</v>
       </c>
       <c r="L7">
-        <v>0.2225948584444524</v>
+        <v>0.2221215236095304</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.077800680413972</v>
+        <v>3.260182640766786</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.783994482103026</v>
+        <v>1.47061369845494</v>
       </c>
       <c r="C8">
-        <v>0.1057018128406355</v>
+        <v>0.04158084816332064</v>
       </c>
       <c r="D8">
-        <v>0.07634543036491781</v>
+        <v>0.1372360072341827</v>
       </c>
       <c r="E8">
-        <v>0.04641544676679388</v>
+        <v>0.07360185295806865</v>
       </c>
       <c r="F8">
-        <v>1.935069842316651</v>
+        <v>2.43421920214054</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.531920453931889</v>
+        <v>0.9898287004302517</v>
       </c>
       <c r="L8">
-        <v>0.2626279716839974</v>
+        <v>0.2307893697286545</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.081219350789937</v>
+        <v>3.257384921364093</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.365163115172322</v>
+        <v>1.600868671506532</v>
       </c>
       <c r="C9">
-        <v>0.1395176848707678</v>
+        <v>0.05162101994606871</v>
       </c>
       <c r="D9">
-        <v>0.07091539282753878</v>
+        <v>0.1362457020019416</v>
       </c>
       <c r="E9">
-        <v>0.05549663725206244</v>
+        <v>0.07501811626369914</v>
       </c>
       <c r="F9">
-        <v>2.291387336838383</v>
+        <v>2.506110257756134</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.063151914326028</v>
+        <v>1.115524746964979</v>
       </c>
       <c r="L9">
-        <v>0.3447392174946629</v>
+        <v>0.2488942489683268</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.105710023933753</v>
+        <v>3.257660754437836</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.811290130053521</v>
+        <v>1.700995526296367</v>
       </c>
       <c r="C10">
-        <v>0.1651157910904004</v>
+        <v>0.05891186340382149</v>
       </c>
       <c r="D10">
-        <v>0.06701975412115502</v>
+        <v>0.1355505948547844</v>
       </c>
       <c r="E10">
-        <v>0.06261723850381884</v>
+        <v>0.07621589625808056</v>
       </c>
       <c r="F10">
-        <v>2.574209646029274</v>
+        <v>2.564154861022203</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.469864848982752</v>
+        <v>1.211005997462451</v>
       </c>
       <c r="L10">
-        <v>0.4080194374714381</v>
+        <v>0.2628781551619568</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.136602279723149</v>
+        <v>3.261398319846379</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.019663188501625</v>
+        <v>1.74751718180022</v>
       </c>
       <c r="C11">
-        <v>0.1770008576979052</v>
+        <v>0.062211293796679</v>
       </c>
       <c r="D11">
-        <v>0.06526790786734082</v>
+        <v>0.1352414066785457</v>
       </c>
       <c r="E11">
-        <v>0.06597654722703439</v>
+        <v>0.07679502049788312</v>
       </c>
       <c r="F11">
-        <v>2.708574087942452</v>
+        <v>2.59170572017652</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.659605900766991</v>
+        <v>1.255133650961881</v>
       </c>
       <c r="L11">
-        <v>0.4376372565860578</v>
+        <v>0.2693896310849624</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.153974420947947</v>
+        <v>3.263871213444816</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.099466933526628</v>
+        <v>1.765274246038473</v>
       </c>
       <c r="C12">
-        <v>0.1815431742223979</v>
+        <v>0.06345831405954527</v>
       </c>
       <c r="D12">
-        <v>0.06460749164304502</v>
+        <v>0.1351253347956121</v>
       </c>
       <c r="E12">
-        <v>0.06726799775496417</v>
+        <v>0.07701924702134733</v>
       </c>
       <c r="F12">
-        <v>2.760381297717885</v>
+        <v>2.602303973590011</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.73224308514088</v>
+        <v>1.271943897005343</v>
       </c>
       <c r="L12">
-        <v>0.4489899150122341</v>
+        <v>0.2718770480895927</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.161078981486384</v>
+        <v>3.264919118760218</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.082237857281768</v>
+        <v>1.761443698060532</v>
       </c>
       <c r="C13">
-        <v>0.1805629277660472</v>
+        <v>0.06318985162285173</v>
       </c>
       <c r="D13">
-        <v>0.06474959085264587</v>
+        <v>0.1351502879620021</v>
       </c>
       <c r="E13">
-        <v>0.06698896451836234</v>
+        <v>0.07697073679749167</v>
       </c>
       <c r="F13">
-        <v>2.749180682074922</v>
+        <v>2.60001408785871</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.716562564191406</v>
+        <v>1.268319052308328</v>
       </c>
       <c r="L13">
-        <v>0.4465385232232677</v>
+        <v>0.2713403736907622</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.159524651403274</v>
+        <v>3.26468846984713</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.026209989974859</v>
+        <v>1.748975251877766</v>
       </c>
       <c r="C14">
-        <v>0.1773736772006487</v>
+        <v>0.06231393463583856</v>
       </c>
       <c r="D14">
-        <v>0.06521351510053819</v>
+        <v>0.1352318371043584</v>
       </c>
       <c r="E14">
-        <v>0.06608239506166314</v>
+        <v>0.07681336904941816</v>
       </c>
       <c r="F14">
-        <v>2.712817086729672</v>
+        <v>2.592574328078456</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.665565391070857</v>
+        <v>1.256514632061851</v>
       </c>
       <c r="L14">
-        <v>0.4385683932700459</v>
+        <v>0.2695938378008123</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.154548073995699</v>
+        <v>3.263955189016514</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.992011858973967</v>
+        <v>1.741356253126185</v>
       </c>
       <c r="C15">
-        <v>0.1754258258160775</v>
+        <v>0.0617770994835638</v>
       </c>
       <c r="D15">
-        <v>0.0654980709195403</v>
+        <v>0.1352819200158617</v>
       </c>
       <c r="E15">
-        <v>0.06552968098327128</v>
+        <v>0.0767176181079563</v>
       </c>
       <c r="F15">
-        <v>2.690667302054095</v>
+        <v>2.588038808750071</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.634433932306706</v>
+        <v>1.249297128114307</v>
       </c>
       <c r="L15">
-        <v>0.4337048559178811</v>
+        <v>0.2685268574543898</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.151569834690918</v>
+        <v>3.26352056154721</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.797791384915683</v>
+        <v>1.697974843951272</v>
       </c>
       <c r="C16">
-        <v>0.1643445019839334</v>
+        <v>0.05869589772535733</v>
       </c>
       <c r="D16">
-        <v>0.06713465352339121</v>
+        <v>0.1355709424092595</v>
       </c>
       <c r="E16">
-        <v>0.06240028972851874</v>
+        <v>0.07617873827324573</v>
       </c>
       <c r="F16">
-        <v>2.565552225139996</v>
+        <v>2.562377455235023</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.457568781377262</v>
+        <v>1.20813612924772</v>
       </c>
       <c r="L16">
-        <v>0.4061020242160112</v>
+        <v>0.2624556421503428</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.135537808732792</v>
+        <v>3.261252289515866</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.680112829178199</v>
+        <v>1.671611317661757</v>
       </c>
       <c r="C17">
-        <v>0.1576128528912335</v>
+        <v>0.05680132354456191</v>
       </c>
       <c r="D17">
-        <v>0.06814386987618271</v>
+        <v>0.1357500472107596</v>
       </c>
       <c r="E17">
-        <v>0.06051268677297728</v>
+        <v>0.07585692457055515</v>
       </c>
       <c r="F17">
-        <v>2.490331519228477</v>
+        <v>2.546928962713011</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.350350435996461</v>
+        <v>1.183062933391881</v>
       </c>
       <c r="L17">
-        <v>0.3893933670169929</v>
+        <v>0.2587696516751095</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.126585841271947</v>
+        <v>3.260058933434053</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.612930404357087</v>
+        <v>1.656539318896932</v>
       </c>
       <c r="C18">
-        <v>0.1537631368367443</v>
+        <v>0.05570999025169954</v>
       </c>
       <c r="D18">
-        <v>0.068726250382392</v>
+        <v>0.1358537241620752</v>
       </c>
       <c r="E18">
-        <v>0.05943815615715664</v>
+        <v>0.0756750494266214</v>
       </c>
       <c r="F18">
-        <v>2.447596775727604</v>
+        <v>2.53815124007582</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.2891189952731</v>
+        <v>1.16870667239138</v>
       </c>
       <c r="L18">
-        <v>0.3798600856925276</v>
+        <v>0.2566636935535485</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.121746088763473</v>
+        <v>3.259445250397789</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.590266650440469</v>
+        <v>1.651451921958653</v>
       </c>
       <c r="C19">
-        <v>0.1524632893106883</v>
+        <v>0.05534020237146819</v>
       </c>
       <c r="D19">
-        <v>0.06892376070482698</v>
+        <v>0.1358889408133521</v>
       </c>
       <c r="E19">
-        <v>0.05907619685173415</v>
+        <v>0.07561402328849809</v>
       </c>
       <c r="F19">
-        <v>2.433215557267786</v>
+        <v>2.535197759720859</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.268459190609178</v>
+        <v>1.163857070117757</v>
       </c>
       <c r="L19">
-        <v>0.3766450191063058</v>
+        <v>0.2559530762531494</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.120159133652777</v>
+        <v>3.259249943702443</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.692587029686308</v>
+        <v>1.674408276914733</v>
       </c>
       <c r="C20">
-        <v>0.158327106868299</v>
+        <v>0.05700317178778391</v>
       </c>
       <c r="D20">
-        <v>0.06803623954261795</v>
+        <v>0.1357309128192554</v>
       </c>
       <c r="E20">
-        <v>0.06071245502568345</v>
+        <v>0.0758908485610128</v>
       </c>
       <c r="F20">
-        <v>2.498283287661792</v>
+        <v>2.548562316091193</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.361717972839926</v>
+        <v>1.185725269026449</v>
       </c>
       <c r="L20">
-        <v>0.391163932194118</v>
+        <v>0.2591605691203824</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.127506457849108</v>
+        <v>3.26017844105985</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.042641381996987</v>
+        <v>1.752633725649162</v>
       </c>
       <c r="C21">
-        <v>0.1783092446107304</v>
+        <v>0.06257127730836487</v>
       </c>
       <c r="D21">
-        <v>0.06507716813661801</v>
+        <v>0.135207856693528</v>
       </c>
       <c r="E21">
-        <v>0.06634813355884006</v>
+        <v>0.07685945811514827</v>
       </c>
       <c r="F21">
-        <v>2.723471916152619</v>
+        <v>2.594755074238748</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.68052224431014</v>
+        <v>1.259979157204668</v>
       </c>
       <c r="L21">
-        <v>0.4409055456871442</v>
+        <v>0.2701062492166386</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.155995120310735</v>
+        <v>3.264167543040458</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.276716693166463</v>
+        <v>1.804576655317305</v>
       </c>
       <c r="C22">
-        <v>0.1916157279311079</v>
+        <v>0.06619638701393171</v>
       </c>
       <c r="D22">
-        <v>0.06316060273391955</v>
+        <v>0.1348719028516978</v>
       </c>
       <c r="E22">
-        <v>0.07014531129915014</v>
+        <v>0.07752120574669874</v>
       </c>
       <c r="F22">
-        <v>2.876102732528267</v>
+        <v>2.625908701538748</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.893521292128241</v>
+        <v>1.309091813167811</v>
       </c>
       <c r="L22">
-        <v>0.4742228452329442</v>
+        <v>0.2773861845586509</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.177707465859328</v>
+        <v>3.267424582822883</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.151259760192943</v>
+        <v>1.776778765894619</v>
       </c>
       <c r="C23">
-        <v>0.1844886223757101</v>
+        <v>0.06426285183080438</v>
       </c>
       <c r="D23">
-        <v>0.06418189599487079</v>
+        <v>0.1350506679083132</v>
       </c>
       <c r="E23">
-        <v>0.06810751405845039</v>
+        <v>0.07716539201416239</v>
       </c>
       <c r="F23">
-        <v>2.794103430816222</v>
+        <v>2.609193039543896</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.779376444052502</v>
+        <v>1.282825929473262</v>
       </c>
       <c r="L23">
-        <v>0.4563605260574946</v>
+        <v>0.2734891645519184</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.165818517617566</v>
+        <v>3.265626647997294</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.686945980440839</v>
+        <v>1.673143507699137</v>
       </c>
       <c r="C24">
-        <v>0.1580041296366801</v>
+        <v>0.0569119227985766</v>
       </c>
       <c r="D24">
-        <v>0.06808489246524729</v>
+        <v>0.1357395612742316</v>
       </c>
       <c r="E24">
-        <v>0.06062210669520596</v>
+        <v>0.07587550174511648</v>
       </c>
       <c r="F24">
-        <v>2.494686710454602</v>
+        <v>2.547823553671165</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.35657744088158</v>
+        <v>1.184521444425684</v>
       </c>
       <c r="L24">
-        <v>0.3903632343806294</v>
+        <v>0.2589837943377091</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.127089294939353</v>
+        <v>3.26012418617772</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.204973544591894</v>
+        <v>1.564856545663474</v>
       </c>
       <c r="C25">
-        <v>0.1302608982924767</v>
+        <v>0.04892033638206783</v>
       </c>
       <c r="D25">
-        <v>0.07236782738312897</v>
+        <v>0.1365078984176602</v>
       </c>
       <c r="E25">
-        <v>0.0529681981270258</v>
+        <v>0.07460738526533106</v>
       </c>
       <c r="F25">
-        <v>2.19165337299512</v>
+        <v>2.485747211794603</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.916915778906116</v>
+        <v>1.080973873212628</v>
       </c>
       <c r="L25">
-        <v>0.3220662752142971</v>
+        <v>0.2438771174267771</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.096980579315698</v>
+        <v>3.256966985954463</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.488102091309003</v>
+        <v>1.862492596435885</v>
       </c>
       <c r="C2">
-        <v>0.04297843819446712</v>
+        <v>0.1103116749705748</v>
       </c>
       <c r="D2">
-        <v>0.1370954164261189</v>
+        <v>0.07558422029748435</v>
       </c>
       <c r="E2">
-        <v>0.07377937550792169</v>
+        <v>0.04762569892315938</v>
       </c>
       <c r="F2">
-        <v>2.443551437920121</v>
+        <v>1.982239382577433</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.006837424343303</v>
+        <v>1.603797716324436</v>
       </c>
       <c r="L2">
-        <v>0.2332125897266764</v>
+        <v>0.2736934368529802</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.257016017890948</v>
+        <v>2.083280010253972</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.437926680809312</v>
+        <v>1.63645686600816</v>
       </c>
       <c r="C3">
-        <v>0.03891360204065109</v>
+        <v>0.09699068485720375</v>
       </c>
       <c r="D3">
-        <v>0.1375072156330379</v>
+        <v>0.07780384308581922</v>
       </c>
       <c r="E3">
-        <v>0.07328404718238524</v>
+        <v>0.04415794902101844</v>
       </c>
       <c r="F3">
-        <v>2.417129626971743</v>
+        <v>1.847376731371128</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9578911728305286</v>
+        <v>1.396691495435249</v>
       </c>
       <c r="L3">
-        <v>0.2262685050182967</v>
+        <v>0.2418553924995877</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.258522478605585</v>
+        <v>2.078600692111891</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.408023314977669</v>
+        <v>1.500173082204981</v>
       </c>
       <c r="C4">
-        <v>0.03639846191308038</v>
+        <v>0.08888058103444507</v>
       </c>
       <c r="D4">
-        <v>0.1377667964015759</v>
+        <v>0.07918665350560516</v>
       </c>
       <c r="E4">
-        <v>0.07301236143787904</v>
+        <v>0.04209533194024573</v>
       </c>
       <c r="F4">
-        <v>2.401974831123155</v>
+        <v>1.767613362612522</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9284730697622763</v>
+        <v>1.271595646311312</v>
       </c>
       <c r="L4">
-        <v>0.2221438623067087</v>
+        <v>0.2226992862200206</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.260171859267004</v>
+        <v>2.07780038206775</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.39606465224324</v>
+        <v>1.445199429309952</v>
       </c>
       <c r="C5">
-        <v>0.03536859521879876</v>
+        <v>0.08558909026214678</v>
       </c>
       <c r="D5">
-        <v>0.1378742713094931</v>
+        <v>0.07975522319765194</v>
       </c>
       <c r="E5">
-        <v>0.07290980921765211</v>
+        <v>0.04127034369183669</v>
       </c>
       <c r="F5">
-        <v>2.396067340362109</v>
+        <v>1.735814540305498</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9166442831923405</v>
+        <v>1.221077752869945</v>
       </c>
       <c r="L5">
-        <v>0.220497943314399</v>
+        <v>0.2149817749725287</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.2610258723372</v>
+        <v>2.077968259648628</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.394092640746152</v>
+        <v>1.436103255805904</v>
       </c>
       <c r="C6">
-        <v>0.03519728704408465</v>
+        <v>0.08504324365480898</v>
       </c>
       <c r="D6">
-        <v>0.1378922197359831</v>
+        <v>0.07984994106168575</v>
       </c>
       <c r="E6">
-        <v>0.072893273543718</v>
+        <v>0.04113426034366618</v>
       </c>
       <c r="F6">
-        <v>2.395102593200065</v>
+        <v>1.730575307658754</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9146897347117147</v>
+        <v>1.212715374954485</v>
       </c>
       <c r="L6">
-        <v>0.2202267462747045</v>
+        <v>0.213705370895795</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.261178657333545</v>
+        <v>2.078025214385519</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.4078611166683</v>
+        <v>1.499429492585023</v>
       </c>
       <c r="C7">
-        <v>0.03638459280985273</v>
+        <v>0.08883614137540974</v>
       </c>
       <c r="D7">
-        <v>0.1377682389890209</v>
+        <v>0.07919430086776469</v>
       </c>
       <c r="E7">
-        <v>0.07301094533160146</v>
+        <v>0.04208414444670971</v>
       </c>
       <c r="F7">
-        <v>2.401894075227403</v>
+        <v>1.767181732331821</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9283128979758146</v>
+        <v>1.270912559785017</v>
       </c>
       <c r="L7">
-        <v>0.2221215236095304</v>
+        <v>0.2225948584444239</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.260182640766786</v>
+        <v>2.077800680413958</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.47061369845494</v>
+        <v>1.783994482103111</v>
       </c>
       <c r="C8">
-        <v>0.04158084816332064</v>
+        <v>0.1057018128408203</v>
       </c>
       <c r="D8">
-        <v>0.1372360072341827</v>
+        <v>0.07634543036480057</v>
       </c>
       <c r="E8">
-        <v>0.07360185295806865</v>
+        <v>0.04641544676681164</v>
       </c>
       <c r="F8">
-        <v>2.43421920214054</v>
+        <v>1.935069842316651</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9898287004302517</v>
+        <v>1.53192045393186</v>
       </c>
       <c r="L8">
-        <v>0.2307893697286545</v>
+        <v>0.2626279716839974</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.257384921364093</v>
+        <v>2.081219350789965</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.600868671506532</v>
+        <v>2.365163115172322</v>
       </c>
       <c r="C9">
-        <v>0.05162101994606871</v>
+        <v>0.1395176848707678</v>
       </c>
       <c r="D9">
-        <v>0.1362457020019416</v>
+        <v>0.07091539282729187</v>
       </c>
       <c r="E9">
-        <v>0.07501811626369914</v>
+        <v>0.05549663725205889</v>
       </c>
       <c r="F9">
-        <v>2.506110257756134</v>
+        <v>2.291387336838383</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.115524746964979</v>
+        <v>2.063151914326113</v>
       </c>
       <c r="L9">
-        <v>0.2488942489683268</v>
+        <v>0.3447392174946629</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.257660754437836</v>
+        <v>2.105710023933739</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.700995526296367</v>
+        <v>2.811290130053749</v>
       </c>
       <c r="C10">
-        <v>0.05891186340382149</v>
+        <v>0.165115791090642</v>
       </c>
       <c r="D10">
-        <v>0.1355505948547844</v>
+        <v>0.06701975412113548</v>
       </c>
       <c r="E10">
-        <v>0.07621589625808056</v>
+        <v>0.06261723850380818</v>
       </c>
       <c r="F10">
-        <v>2.564154861022203</v>
+        <v>2.574209646029317</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.211005997462451</v>
+        <v>2.469864848982724</v>
       </c>
       <c r="L10">
-        <v>0.2628781551619568</v>
+        <v>0.4080194374715234</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.261398319846379</v>
+        <v>2.136602279723107</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.74751718180022</v>
+        <v>3.019663188501454</v>
       </c>
       <c r="C11">
-        <v>0.062211293796679</v>
+        <v>0.1770008576983457</v>
       </c>
       <c r="D11">
-        <v>0.1352414066785457</v>
+        <v>0.06526790786757175</v>
       </c>
       <c r="E11">
-        <v>0.07679502049788312</v>
+        <v>0.06597654722703084</v>
       </c>
       <c r="F11">
-        <v>2.59170572017652</v>
+        <v>2.70857408794248</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.255133650961881</v>
+        <v>2.659605900766792</v>
       </c>
       <c r="L11">
-        <v>0.2693896310849624</v>
+        <v>0.4376372565861857</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.263871213444816</v>
+        <v>2.153974420947975</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.765274246038473</v>
+        <v>3.099466933526855</v>
       </c>
       <c r="C12">
-        <v>0.06345831405954527</v>
+        <v>0.1815431742228952</v>
       </c>
       <c r="D12">
-        <v>0.1351253347956121</v>
+        <v>0.0646074916430468</v>
       </c>
       <c r="E12">
-        <v>0.07701924702134733</v>
+        <v>0.0672679977549997</v>
       </c>
       <c r="F12">
-        <v>2.602303973590011</v>
+        <v>2.760381297717942</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.271943897005343</v>
+        <v>2.732243085140738</v>
       </c>
       <c r="L12">
-        <v>0.2718770480895927</v>
+        <v>0.4489899150121914</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.264919118760218</v>
+        <v>2.161078981486327</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.761443698060532</v>
+        <v>3.082237857282166</v>
       </c>
       <c r="C13">
-        <v>0.06318985162285173</v>
+        <v>0.1805629277665162</v>
       </c>
       <c r="D13">
-        <v>0.1351502879620021</v>
+        <v>0.0647495908525304</v>
       </c>
       <c r="E13">
-        <v>0.07697073679749167</v>
+        <v>0.06698896451836234</v>
       </c>
       <c r="F13">
-        <v>2.60001408785871</v>
+        <v>2.749180682074922</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.268319052308328</v>
+        <v>2.716562564191378</v>
       </c>
       <c r="L13">
-        <v>0.2713403736907622</v>
+        <v>0.4465385232232677</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.26468846984713</v>
+        <v>2.159524651403274</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.748975251877766</v>
+        <v>3.02620998997503</v>
       </c>
       <c r="C14">
-        <v>0.06231393463583856</v>
+        <v>0.1773736772006345</v>
       </c>
       <c r="D14">
-        <v>0.1352318371043584</v>
+        <v>0.06521351510066253</v>
       </c>
       <c r="E14">
-        <v>0.07681336904941816</v>
+        <v>0.06608239506160984</v>
       </c>
       <c r="F14">
-        <v>2.592574328078456</v>
+        <v>2.7128170867297</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.256514632061851</v>
+        <v>2.665565391070771</v>
       </c>
       <c r="L14">
-        <v>0.2695938378008123</v>
+        <v>0.4385683932700033</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.263955189016514</v>
+        <v>2.15454807399567</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.741356253126185</v>
+        <v>2.99201185897391</v>
       </c>
       <c r="C15">
-        <v>0.0617770994835638</v>
+        <v>0.1754258258158501</v>
       </c>
       <c r="D15">
-        <v>0.1352819200158617</v>
+        <v>0.0654980709196451</v>
       </c>
       <c r="E15">
-        <v>0.0767176181079563</v>
+        <v>0.0655296809832393</v>
       </c>
       <c r="F15">
-        <v>2.588038808750071</v>
+        <v>2.690667302054067</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.249297128114307</v>
+        <v>2.63443393230682</v>
       </c>
       <c r="L15">
-        <v>0.2685268574543898</v>
+        <v>0.4337048559177958</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.26352056154721</v>
+        <v>2.151569834690946</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.697974843951272</v>
+        <v>2.797791384915683</v>
       </c>
       <c r="C16">
-        <v>0.05869589772535733</v>
+        <v>0.1643445019837202</v>
       </c>
       <c r="D16">
-        <v>0.1355709424092595</v>
+        <v>0.06713465352317094</v>
       </c>
       <c r="E16">
-        <v>0.07617873827324573</v>
+        <v>0.0624002897285223</v>
       </c>
       <c r="F16">
-        <v>2.562377455235023</v>
+        <v>2.565552225139967</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.20813612924772</v>
+        <v>2.457568781377347</v>
       </c>
       <c r="L16">
-        <v>0.2624556421503428</v>
+        <v>0.4061020242160822</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.261252289515866</v>
+        <v>2.135537808732821</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.671611317661757</v>
+        <v>2.680112829178313</v>
       </c>
       <c r="C17">
-        <v>0.05680132354456191</v>
+        <v>0.1576128528909919</v>
       </c>
       <c r="D17">
-        <v>0.1357500472107596</v>
+        <v>0.06814386987617915</v>
       </c>
       <c r="E17">
-        <v>0.07585692457055515</v>
+        <v>0.06051268677295241</v>
       </c>
       <c r="F17">
-        <v>2.546928962713011</v>
+        <v>2.490331519228477</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.183062933391881</v>
+        <v>2.350350435996461</v>
       </c>
       <c r="L17">
-        <v>0.2587696516751095</v>
+        <v>0.3893933670170497</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.260058933434053</v>
+        <v>2.126585841271904</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.656539318896932</v>
+        <v>2.612930404357257</v>
       </c>
       <c r="C18">
-        <v>0.05570999025169954</v>
+        <v>0.15376313683673</v>
       </c>
       <c r="D18">
-        <v>0.1358537241620752</v>
+        <v>0.06872625038225877</v>
       </c>
       <c r="E18">
-        <v>0.0756750494266214</v>
+        <v>0.05943815615718151</v>
       </c>
       <c r="F18">
-        <v>2.53815124007582</v>
+        <v>2.447596775727618</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.16870667239138</v>
+        <v>2.289118995273157</v>
       </c>
       <c r="L18">
-        <v>0.2566636935535485</v>
+        <v>0.3798600856925134</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.259445250397789</v>
+        <v>2.121746088763416</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.651451921958653</v>
+        <v>2.590266650440299</v>
       </c>
       <c r="C19">
-        <v>0.05534020237146819</v>
+        <v>0.1524632893102336</v>
       </c>
       <c r="D19">
-        <v>0.1358889408133521</v>
+        <v>0.06892376070485007</v>
       </c>
       <c r="E19">
-        <v>0.07561402328849809</v>
+        <v>0.05907619685177323</v>
       </c>
       <c r="F19">
-        <v>2.535197759720859</v>
+        <v>2.433215557267815</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.163857070117757</v>
+        <v>2.268459190609121</v>
       </c>
       <c r="L19">
-        <v>0.2559530762531494</v>
+        <v>0.3766450191062773</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.259249943702443</v>
+        <v>2.120159133652834</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.674408276914733</v>
+        <v>2.692587029686536</v>
       </c>
       <c r="C20">
-        <v>0.05700317178778391</v>
+        <v>0.1583271068687395</v>
       </c>
       <c r="D20">
-        <v>0.1357309128192554</v>
+        <v>0.0680362395426144</v>
       </c>
       <c r="E20">
-        <v>0.0758908485610128</v>
+        <v>0.06071245502570122</v>
       </c>
       <c r="F20">
-        <v>2.548562316091193</v>
+        <v>2.498283287661792</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.185725269026449</v>
+        <v>2.361717972839926</v>
       </c>
       <c r="L20">
-        <v>0.2591605691203824</v>
+        <v>0.3911639321942033</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.26017844105985</v>
+        <v>2.127506457849137</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.752633725649162</v>
+        <v>3.042641381996987</v>
       </c>
       <c r="C21">
-        <v>0.06257127730836487</v>
+        <v>0.1783092446107304</v>
       </c>
       <c r="D21">
-        <v>0.135207856693528</v>
+        <v>0.06507716813670505</v>
       </c>
       <c r="E21">
-        <v>0.07685945811514827</v>
+        <v>0.06634813355891822</v>
       </c>
       <c r="F21">
-        <v>2.594755074238748</v>
+        <v>2.723471916152619</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.259979157204668</v>
+        <v>2.680522244310197</v>
       </c>
       <c r="L21">
-        <v>0.2701062492166386</v>
+        <v>0.4409055456871869</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.264167543040458</v>
+        <v>2.155995120310678</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.804576655317305</v>
+        <v>3.276716693166463</v>
       </c>
       <c r="C22">
-        <v>0.06619638701393171</v>
+        <v>0.1916157279308663</v>
       </c>
       <c r="D22">
-        <v>0.1348719028516978</v>
+        <v>0.0631606027339302</v>
       </c>
       <c r="E22">
-        <v>0.07752120574669874</v>
+        <v>0.0701453112991608</v>
       </c>
       <c r="F22">
-        <v>2.625908701538748</v>
+        <v>2.876102732528238</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.309091813167811</v>
+        <v>2.893521292128099</v>
       </c>
       <c r="L22">
-        <v>0.2773861845586509</v>
+        <v>0.4742228452329584</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.267424582822883</v>
+        <v>2.177707465859328</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.776778765894619</v>
+        <v>3.151259760193057</v>
       </c>
       <c r="C23">
-        <v>0.06426285183080438</v>
+        <v>0.1844886223759374</v>
       </c>
       <c r="D23">
-        <v>0.1350506679083132</v>
+        <v>0.0641818959949898</v>
       </c>
       <c r="E23">
-        <v>0.07716539201416239</v>
+        <v>0.06810751405841842</v>
       </c>
       <c r="F23">
-        <v>2.609193039543896</v>
+        <v>2.794103430816222</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.282825929473262</v>
+        <v>2.779376444052502</v>
       </c>
       <c r="L23">
-        <v>0.2734891645519184</v>
+        <v>0.4563605260575088</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.265626647997294</v>
+        <v>2.165818517617566</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.673143507699137</v>
+        <v>2.686945980440839</v>
       </c>
       <c r="C24">
-        <v>0.0569119227985766</v>
+        <v>0.1580041296364243</v>
       </c>
       <c r="D24">
-        <v>0.1357395612742316</v>
+        <v>0.06808489246536276</v>
       </c>
       <c r="E24">
-        <v>0.07587550174511648</v>
+        <v>0.06062210669523083</v>
       </c>
       <c r="F24">
-        <v>2.547823553671165</v>
+        <v>2.494686710454587</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.184521444425684</v>
+        <v>2.35657744088175</v>
       </c>
       <c r="L24">
-        <v>0.2589837943377091</v>
+        <v>0.390363234380672</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.26012418617772</v>
+        <v>2.127089294939367</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.564856545663474</v>
+        <v>2.204973544591837</v>
       </c>
       <c r="C25">
-        <v>0.04892033638206783</v>
+        <v>0.1302608982926756</v>
       </c>
       <c r="D25">
-        <v>0.1365078984176602</v>
+        <v>0.07236782738292113</v>
       </c>
       <c r="E25">
-        <v>0.07460738526533106</v>
+        <v>0.05296819812700093</v>
       </c>
       <c r="F25">
-        <v>2.485747211794603</v>
+        <v>2.191653372995106</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.080973873212628</v>
+        <v>1.916915778906059</v>
       </c>
       <c r="L25">
-        <v>0.2438771174267771</v>
+        <v>0.3220662752144392</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.256966985954463</v>
+        <v>2.096980579315684</v>
       </c>
       <c r="O25">
         <v>0</v>
